--- a/참고/s100 register docs.xlsx
+++ b/참고/s100 register docs.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/725f45f8aad67aa1/HJ/s100 Register/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2024\S100-Register\참고\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="117" documentId="8_{420C4C7E-31B2-4EB9-B214-6FABBFC4C674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9244DB7B-ACFB-43AB-A218-767127100BF8}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1185" yWindow="1080" windowWidth="24300" windowHeight="18135" activeTab="2" xr2:uid="{51941DFF-2E91-436C-80FB-1A510E312B12}"/>
+    <workbookView xWindow="1185" yWindow="1080" windowWidth="24300" windowHeight="18135" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="샘플 데이터 입력" sheetId="2" r:id="rId2"/>
     <sheet name="샘플 데이터" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="191">
   <si>
     <t>S100_RE_Register</t>
   </si>
@@ -432,12 +431,208 @@
   </si>
   <si>
     <t>data8</t>
+  </si>
+  <si>
+    <t>Sample Register</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>This is a sample register content summary.</t>
+  </si>
+  <si>
+    <t>http://example.com/sample-register</t>
+  </si>
+  <si>
+    <t>Item 1</t>
+  </si>
+  <si>
+    <t>Item 2</t>
+  </si>
+  <si>
+    <t>Item 3</t>
+  </si>
+  <si>
+    <t>Item 4</t>
+  </si>
+  <si>
+    <t>Item 5</t>
+  </si>
+  <si>
+    <t>Definition of Item 1</t>
+  </si>
+  <si>
+    <t>Definition of Item 2</t>
+  </si>
+  <si>
+    <t>Definition of Item 3</t>
+  </si>
+  <si>
+    <t>Definition of Item 4</t>
+  </si>
+  <si>
+    <t>Definition of Item 5</t>
+  </si>
+  <si>
+    <t>Remarks for Item 1</t>
+  </si>
+  <si>
+    <t>Remarks for Item 2</t>
+  </si>
+  <si>
+    <t>Remarks for Item 3</t>
+  </si>
+  <si>
+    <t>Remarks for Item 4</t>
+  </si>
+  <si>
+    <t>Remarks for Item 5</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>itemOne</t>
+  </si>
+  <si>
+    <t>itemTwo</t>
+  </si>
+  <si>
+    <t>itemThree</t>
+  </si>
+  <si>
+    <t>itemFour</t>
+  </si>
+  <si>
+    <t>itemFive</t>
+  </si>
+  <si>
+    <t>Source for definition of Item 1</t>
+  </si>
+  <si>
+    <t>Source for definition of Item 2</t>
+  </si>
+  <si>
+    <t>Source for definition of Item 3</t>
+  </si>
+  <si>
+    <t>Source for definition of Item 4</t>
+  </si>
+  <si>
+    <t>Source for definition of Item 5</t>
+  </si>
+  <si>
+    <t>Reference for Item 1</t>
+  </si>
+  <si>
+    <t>Reference for Item 2</t>
+  </si>
+  <si>
+    <t>Reference for Item 3</t>
+  </si>
+  <si>
+    <t>Reference for Item 4</t>
+  </si>
+  <si>
+    <t>Reference for Item 5</t>
+  </si>
+  <si>
+    <t>Justification for Item 1</t>
+  </si>
+  <si>
+    <t>Justification for Item 2</t>
+  </si>
+  <si>
+    <t>Justification for Item 3</t>
+  </si>
+  <si>
+    <t>Justification for Item 4</t>
+  </si>
+  <si>
+    <t>Justification for Item 5</t>
+  </si>
+  <si>
+    <t>Proposed change for Item 1</t>
+  </si>
+  <si>
+    <t>Proposed change for Item 2</t>
+  </si>
+  <si>
+    <t>Proposed change for Item 3</t>
+  </si>
+  <si>
+    <t>Proposed change for Item 4</t>
+  </si>
+  <si>
+    <t>Proposed change for Item 5</t>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Organization 1</t>
+  </si>
+  <si>
+    <t>Organization 2</t>
+  </si>
+  <si>
+    <t>Organization 3</t>
+  </si>
+  <si>
+    <t>Organization 4</t>
+  </si>
+  <si>
+    <t>Organization 5</t>
+  </si>
+  <si>
+    <t>Reference1</t>
+  </si>
+  <si>
+    <t>Document1</t>
+  </si>
+  <si>
+    <t>Reference2</t>
+  </si>
+  <si>
+    <t>Document2</t>
+  </si>
+  <si>
+    <t>Reference3</t>
+  </si>
+  <si>
+    <t>Document3</t>
+  </si>
+  <si>
+    <t>OneToOneField</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextField</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CharField</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DateField</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IntegerField</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSONField</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -659,7 +854,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -669,14 +864,119 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -690,110 +990,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1113,10 +1317,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08A4A639-F0E7-4CEB-B206-8DF08B8D5608}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:I44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
@@ -1144,27 +1348,27 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="9"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="44"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="3"/>
+      <c r="H5" s="41"/>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="11"/>
+      <c r="E6" s="7"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
         <v>4</v>
@@ -1176,13 +1380,13 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="11"/>
+      <c r="E7" s="7"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
         <v>8</v>
@@ -1194,13 +1398,13 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="11"/>
+      <c r="E8" s="7"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
         <v>11</v>
@@ -1212,13 +1416,13 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="11"/>
+      <c r="E9" s="7"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
         <v>15</v>
@@ -1230,13 +1434,13 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" s="2"/>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="14"/>
+      <c r="E10" s="10"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -1248,19 +1452,19 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="3"/>
+      <c r="H11" s="41"/>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="9"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="44"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
         <v>21</v>
@@ -1272,13 +1476,13 @@
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="11"/>
+      <c r="E13" s="7"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
         <v>8</v>
@@ -1290,13 +1494,13 @@
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="2"/>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="11"/>
+      <c r="E14" s="7"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2" t="s">
         <v>11</v>
@@ -1308,13 +1512,13 @@
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="6" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="11" t="s">
         <v>28</v>
       </c>
       <c r="F15" s="2"/>
@@ -1328,13 +1532,13 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="6" t="s">
         <v>31</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="11" t="s">
         <v>28</v>
       </c>
       <c r="F16" s="2"/>
@@ -1348,13 +1552,13 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E17" s="11"/>
+      <c r="E17" s="7"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2" t="s">
         <v>36</v>
@@ -1366,13 +1570,13 @@
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="2"/>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="6" t="s">
         <v>38</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="12" t="s">
         <v>39</v>
       </c>
       <c r="F18" s="2"/>
@@ -1386,13 +1590,13 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="6" t="s">
         <v>42</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="11" t="s">
         <v>28</v>
       </c>
       <c r="F19" s="2"/>
@@ -1406,13 +1610,13 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="2"/>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="6" t="s">
         <v>45</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E20" s="11" t="s">
         <v>28</v>
       </c>
       <c r="F20" s="2"/>
@@ -1426,13 +1630,13 @@
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="6" t="s">
         <v>48</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="11" t="s">
         <v>28</v>
       </c>
       <c r="F21" s="2"/>
@@ -1446,13 +1650,13 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" s="2"/>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="6" t="s">
         <v>51</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E22" s="11" t="s">
         <v>28</v>
       </c>
       <c r="F22" s="2"/>
@@ -1462,31 +1666,31 @@
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" s="2"/>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="6" t="s">
         <v>52</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="11" t="s">
         <v>28</v>
       </c>
       <c r="F23" s="2"/>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="H23" s="3"/>
+      <c r="H23" s="41"/>
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" s="2"/>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="E24" s="14" t="s">
         <v>28</v>
       </c>
       <c r="F24" s="2"/>
@@ -1514,11 +1718,11 @@
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B26" s="2"/>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="9"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="44"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2" t="s">
         <v>59</v>
@@ -1530,13 +1734,13 @@
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" s="2"/>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="E27" s="11"/>
+      <c r="E27" s="7"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2" t="s">
         <v>62</v>
@@ -1548,13 +1752,13 @@
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" s="2"/>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="6" t="s">
         <v>64</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="11"/>
+      <c r="E28" s="7"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2" t="s">
         <v>65</v>
@@ -1566,13 +1770,13 @@
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B29" s="2"/>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="6" t="s">
         <v>53</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="11"/>
+      <c r="E29" s="7"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2" t="s">
         <v>67</v>
@@ -1584,13 +1788,13 @@
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B30" s="2"/>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E30" s="15" t="s">
+      <c r="E30" s="11" t="s">
         <v>28</v>
       </c>
       <c r="F30" s="2"/>
@@ -1600,29 +1804,29 @@
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B31" s="2"/>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E31" s="11"/>
+      <c r="E31" s="7"/>
       <c r="F31" s="2"/>
-      <c r="G31" s="3" t="s">
+      <c r="G31" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="H31" s="3"/>
+      <c r="H31" s="41"/>
       <c r="I31" s="2"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B32" s="2"/>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="11"/>
+      <c r="E32" s="7"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2" t="s">
         <v>73</v>
@@ -1634,13 +1838,13 @@
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33" s="2"/>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E33" s="11"/>
+      <c r="E33" s="7"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2" t="s">
         <v>77</v>
@@ -1652,13 +1856,13 @@
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B34" s="2"/>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D34" s="17" t="s">
+      <c r="D34" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E34" s="19" t="s">
+      <c r="E34" s="15" t="s">
         <v>39</v>
       </c>
       <c r="F34" s="2"/>
@@ -1686,11 +1890,11 @@
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B36" s="2"/>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="D36" s="8"/>
-      <c r="E36" s="9"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="44"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2" t="s">
         <v>85</v>
@@ -1702,13 +1906,13 @@
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B37" s="2"/>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="6" t="s">
         <v>87</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E37" s="15" t="s">
+      <c r="E37" s="11" t="s">
         <v>28</v>
       </c>
       <c r="F37" s="2"/>
@@ -1722,13 +1926,13 @@
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B38" s="2"/>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="6" t="s">
         <v>90</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E38" s="11"/>
+      <c r="E38" s="7"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
@@ -1736,13 +1940,13 @@
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B39" s="2"/>
-      <c r="C39" s="12" t="s">
+      <c r="C39" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D39" s="20" t="s">
+      <c r="D39" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="E39" s="14"/>
+      <c r="E39" s="10"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
@@ -1760,11 +1964,11 @@
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B41" s="2"/>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="D41" s="8"/>
-      <c r="E41" s="9"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="44"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
@@ -1772,13 +1976,13 @@
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B42" s="2"/>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="6" t="s">
         <v>87</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E42" s="15" t="s">
+      <c r="E42" s="11" t="s">
         <v>28</v>
       </c>
       <c r="F42" s="2"/>
@@ -1788,13 +1992,13 @@
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B43" s="2"/>
-      <c r="C43" s="12" t="s">
+      <c r="C43" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D43" s="17" t="s">
+      <c r="D43" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="E43" s="14"/>
+      <c r="E43" s="10"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
@@ -1828,27 +2032,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8FBA1DF-E322-4B4D-8A6E-4B193C065AC9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P48"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F1" sqref="B1:F1048576"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="26.5" style="31" customWidth="1"/>
-    <col min="3" max="3" width="24.875" style="31" customWidth="1"/>
-    <col min="4" max="4" width="5.625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="36" customWidth="1"/>
-    <col min="6" max="6" width="25.375" style="31" customWidth="1"/>
-    <col min="7" max="7" width="9" style="31"/>
-    <col min="8" max="8" width="1.75" style="31" customWidth="1"/>
-    <col min="9" max="9" width="25" style="31" customWidth="1"/>
-    <col min="10" max="12" width="2" style="31" customWidth="1"/>
-    <col min="13" max="13" width="39.75" style="31" customWidth="1"/>
-    <col min="14" max="14" width="2.25" style="31" customWidth="1"/>
+    <col min="2" max="2" width="26.5" style="27" customWidth="1"/>
+    <col min="3" max="3" width="24.875" style="27" customWidth="1"/>
+    <col min="4" max="4" width="5.625" style="27" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="32" customWidth="1"/>
+    <col min="6" max="6" width="25.375" style="27" customWidth="1"/>
+    <col min="7" max="7" width="9" style="27"/>
+    <col min="8" max="8" width="1.75" style="27" customWidth="1"/>
+    <col min="9" max="9" width="25" style="27" customWidth="1"/>
+    <col min="10" max="12" width="2" style="27" customWidth="1"/>
+    <col min="13" max="13" width="39.75" style="27" customWidth="1"/>
+    <col min="14" max="14" width="2.25" style="27" customWidth="1"/>
     <col min="15" max="15" width="4.25" style="1" customWidth="1"/>
     <col min="16" max="16" width="9" style="1"/>
   </cols>
@@ -1858,7 +2062,7 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="27"/>
+      <c r="E2" s="23"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -1875,10 +2079,10 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="22" t="s">
         <v>121</v>
       </c>
       <c r="G3" s="2"/>
@@ -1893,22 +2097,22 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="23"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="19"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
-      <c r="M4" s="6"/>
+      <c r="M4" s="5"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
     </row>
@@ -1920,11 +2124,11 @@
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="29" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="F5" s="15"/>
+      <c r="F5" s="11"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
         <v>99</v>
@@ -1957,11 +2161,11 @@
       <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="29" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="F6" s="15"/>
+      <c r="F6" s="11"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
         <v>99</v>
@@ -1994,11 +2198,11 @@
       <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="29" t="s">
+      <c r="D7" s="3"/>
+      <c r="E7" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="F7" s="15"/>
+      <c r="F7" s="11"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
         <v>99</v>
@@ -2031,11 +2235,11 @@
       <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="29" t="s">
+      <c r="D8" s="3"/>
+      <c r="E8" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="F8" s="15"/>
+      <c r="F8" s="11"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2" t="s">
         <v>99</v>
@@ -2065,14 +2269,14 @@
       <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="30">
+      <c r="D9" s="3"/>
+      <c r="E9" s="26">
         <v>44838</v>
       </c>
-      <c r="F9" s="24"/>
+      <c r="F9" s="20"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
         <v>99</v>
@@ -2106,10 +2310,10 @@
       <c r="D10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="F10" s="15"/>
+      <c r="F10" s="11"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
@@ -2129,8 +2333,8 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="15"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="11"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -2143,22 +2347,22 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="23"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="19"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="6"/>
+      <c r="M12" s="5"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
     </row>
@@ -2170,11 +2374,11 @@
       <c r="C13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="29" t="s">
+      <c r="D13" s="3"/>
+      <c r="E13" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="F13" s="15"/>
+      <c r="F13" s="11"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
         <v>99</v>
@@ -2207,11 +2411,11 @@
       <c r="C14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="29" t="s">
+      <c r="D14" s="3"/>
+      <c r="E14" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="15"/>
+      <c r="F14" s="11"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2" t="s">
         <v>99</v>
@@ -2247,8 +2451,8 @@
       <c r="D15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="29"/>
-      <c r="F15" s="15"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="11"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2" t="s">
@@ -2272,8 +2476,8 @@
       <c r="D16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="15"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="11"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2" t="s">
@@ -2291,14 +2495,14 @@
       <c r="B17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="29" t="s">
+      <c r="D17" s="3"/>
+      <c r="E17" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="15"/>
+      <c r="F17" s="11"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2" t="s">
         <v>99</v>
@@ -2334,8 +2538,8 @@
       <c r="D18" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="29"/>
-      <c r="F18" s="15"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="11"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2" t="s">
@@ -2359,8 +2563,8 @@
       <c r="D19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="29"/>
-      <c r="F19" s="15"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="11"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2" t="s">
@@ -2384,8 +2588,8 @@
       <c r="D20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="29"/>
-      <c r="F20" s="15"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="11"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2" t="s">
@@ -2409,8 +2613,8 @@
       <c r="D21" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="29"/>
-      <c r="F21" s="15"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="11"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2" t="s">
@@ -2434,8 +2638,8 @@
       <c r="D22" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="29"/>
-      <c r="F22" s="15"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="11"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2" t="s">
@@ -2459,8 +2663,8 @@
       <c r="D23" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="29"/>
-      <c r="F23" s="15"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="11"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2" t="s">
@@ -2484,8 +2688,8 @@
       <c r="D24" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="29"/>
-      <c r="F24" s="15"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="11"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2" t="s">
@@ -2504,13 +2708,13 @@
         <v>107</v>
       </c>
       <c r="C25" s="2"/>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E25" s="29" t="s">
+      <c r="E25" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="F25" s="15"/>
+      <c r="F25" s="11"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2" t="s">
@@ -2534,8 +2738,8 @@
       <c r="D26" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="29"/>
-      <c r="F26" s="15"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="11"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2" t="s">
@@ -2557,8 +2761,8 @@
       <c r="D27" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E27" s="29"/>
-      <c r="F27" s="15"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="11"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2" t="s">
@@ -2576,8 +2780,8 @@
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="15"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="11"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -2590,22 +2794,22 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="23"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="19"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="6" t="s">
+      <c r="I29" s="5" t="s">
         <v>58</v>
       </c>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
-      <c r="M29" s="6"/>
+      <c r="M29" s="5"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
     </row>
@@ -2614,14 +2818,14 @@
       <c r="B30" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="29" t="s">
+      <c r="D30" s="3"/>
+      <c r="E30" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="F30" s="15"/>
+      <c r="F30" s="11"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2" t="s">
         <v>99</v>
@@ -2654,11 +2858,11 @@
       <c r="C31" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="29" t="s">
+      <c r="D31" s="3"/>
+      <c r="E31" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="F31" s="15"/>
+      <c r="F31" s="11"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2" t="s">
         <v>99</v>
@@ -2691,11 +2895,11 @@
       <c r="C32" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="29" t="s">
+      <c r="D32" s="3"/>
+      <c r="E32" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="F32" s="15"/>
+      <c r="F32" s="11"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2" t="s">
         <v>99</v>
@@ -2725,14 +2929,14 @@
       <c r="B33" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="C33" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E33" s="29"/>
-      <c r="F33" s="15"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="11"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2" t="s">
@@ -2750,14 +2954,14 @@
       <c r="B34" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="C34" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="30">
+      <c r="D34" s="3"/>
+      <c r="E34" s="26">
         <v>41467</v>
       </c>
-      <c r="F34" s="24"/>
+      <c r="F34" s="20"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2" t="s">
         <v>99</v>
@@ -2787,14 +2991,14 @@
       <c r="B35" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="C35" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="30">
+      <c r="D35" s="3"/>
+      <c r="E35" s="26">
         <v>42050</v>
       </c>
-      <c r="F35" s="24"/>
+      <c r="F35" s="20"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2" t="s">
         <v>99</v>
@@ -2824,14 +3028,14 @@
       <c r="B36" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="D36" s="4"/>
-      <c r="E36" s="29" t="s">
+      <c r="D36" s="3"/>
+      <c r="E36" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="F36" s="15"/>
+      <c r="F36" s="11"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2" t="s">
         <v>99</v>
@@ -2867,8 +3071,8 @@
       <c r="D37" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E37" s="29"/>
-      <c r="F37" s="15"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="11"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2" t="s">
@@ -2886,8 +3090,8 @@
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="15"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="11"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
@@ -2900,22 +3104,22 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="23"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="19"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
-      <c r="I39" s="6" t="s">
+      <c r="I39" s="5" t="s">
         <v>84</v>
       </c>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
-      <c r="M39" s="6"/>
+      <c r="M39" s="5"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
     </row>
@@ -2930,8 +3134,8 @@
       <c r="D40" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E40" s="29"/>
-      <c r="F40" s="15"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="11"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2" t="s">
@@ -2952,11 +3156,11 @@
       <c r="C41" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D41" s="4"/>
-      <c r="E41" s="29" t="s">
+      <c r="D41" s="3"/>
+      <c r="E41" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="F41" s="15"/>
+      <c r="F41" s="11"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2" t="s">
         <v>99</v>
@@ -2986,14 +3190,14 @@
       <c r="B42" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C42" s="22" t="s">
+      <c r="C42" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="D42" s="4"/>
-      <c r="E42" s="29" t="s">
+      <c r="D42" s="3"/>
+      <c r="E42" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="F42" s="15"/>
+      <c r="F42" s="11"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2" t="s">
         <v>99</v>
@@ -3023,8 +3227,8 @@
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="15"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="11"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
@@ -3037,22 +3241,22 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="23"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="19"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
-      <c r="I44" s="6" t="s">
+      <c r="I44" s="5" t="s">
         <v>93</v>
       </c>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
-      <c r="M44" s="6"/>
+      <c r="M44" s="5"/>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
     </row>
@@ -3067,8 +3271,8 @@
       <c r="D45" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E45" s="29"/>
-      <c r="F45" s="15"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="11"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2" t="s">
@@ -3089,11 +3293,11 @@
       <c r="C46" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D46" s="4"/>
-      <c r="E46" s="29" t="s">
+      <c r="D46" s="3"/>
+      <c r="E46" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="F46" s="15"/>
+      <c r="F46" s="11"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2" t="s">
         <v>99</v>
@@ -3119,12 +3323,12 @@
       <c r="O46" s="2"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="E47" s="32"/>
-      <c r="F47" s="33"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="29"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="E48" s="34"/>
-      <c r="F48" s="35"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -3133,82 +3337,83 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30D1DF8E-9FD1-41D1-A0A1-A9DCDACB03F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="26.5" style="31" customWidth="1"/>
-    <col min="3" max="3" width="24.875" style="31" customWidth="1"/>
-    <col min="4" max="4" width="5.125" style="36" customWidth="1"/>
-    <col min="5" max="11" width="21.5" style="36" customWidth="1"/>
-    <col min="12" max="12" width="21.5" style="31" customWidth="1"/>
+    <col min="2" max="2" width="26.5" style="27" customWidth="1"/>
+    <col min="3" max="3" width="24.875" style="27" customWidth="1"/>
+    <col min="4" max="4" width="5.125" style="32" customWidth="1"/>
+    <col min="5" max="9" width="28.75" style="32" customWidth="1"/>
+    <col min="10" max="11" width="21.5" style="32" customWidth="1"/>
+    <col min="12" max="12" width="21.5" style="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="38" t="s">
+      <c r="D3" s="23"/>
+      <c r="E3" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="H3" s="38" t="s">
+      <c r="H3" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="I3" s="38" t="s">
+      <c r="I3" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="J3" s="38" t="s">
+      <c r="J3" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="K3" s="38" t="s">
+      <c r="K3" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="L3" s="38" t="s">
+      <c r="L3" s="34" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
@@ -3216,19 +3421,19 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
+        <v>187</v>
+      </c>
+      <c r="D5" s="40"/>
+      <c r="E5" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
@@ -3236,19 +3441,19 @@
         <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
+        <v>187</v>
+      </c>
+      <c r="D6" s="40"/>
+      <c r="E6" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
@@ -3256,19 +3461,19 @@
         <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="44"/>
-      <c r="E7" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
+        <v>186</v>
+      </c>
+      <c r="D7" s="40"/>
+      <c r="E7" s="46" t="s">
+        <v>130</v>
+      </c>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
@@ -3276,758 +3481,988 @@
         <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="44"/>
-      <c r="E8" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
+        <v>187</v>
+      </c>
+      <c r="D8" s="40"/>
+      <c r="E8" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="44"/>
-      <c r="E9" s="41">
-        <v>44838</v>
-      </c>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
+      <c r="C9" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="D9" s="40"/>
+      <c r="E9" s="47">
+        <v>45335</v>
+      </c>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
-      <c r="B10" s="2" t="s">
-        <v>104</v>
-      </c>
+      <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="44"/>
-      <c r="E13" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
+      <c r="B13" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="E13" s="46">
+        <v>1</v>
+      </c>
+      <c r="F13" s="46">
+        <v>1</v>
+      </c>
+      <c r="G13" s="46">
+        <v>1</v>
+      </c>
+      <c r="H13" s="46">
+        <v>1</v>
+      </c>
+      <c r="I13" s="46">
+        <v>1</v>
+      </c>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D14" s="40"/>
+      <c r="E14" s="46">
+        <v>1</v>
+      </c>
+      <c r="F14" s="46">
         <v>2</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="G14" s="46">
         <v>3</v>
       </c>
-      <c r="D14" s="44"/>
-      <c r="E14" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
+      <c r="H14" s="46">
+        <v>4</v>
+      </c>
+      <c r="I14" s="46">
+        <v>5</v>
+      </c>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
+        <v>187</v>
+      </c>
+      <c r="D15" s="40"/>
+      <c r="E15" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="F15" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="G15" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="H15" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="I15" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="D16" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
+      <c r="E16" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="F16" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="G16" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="H16" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="I16" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="44"/>
-      <c r="E17" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
+        <v>31</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="F17" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="G17" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="H17" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="I17" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
+        <v>34</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="40"/>
+      <c r="E18" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="I18" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
+        <v>190</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="F19" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="G19" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="H19" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="I19" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="D20" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
+      <c r="E20" s="46" t="s">
+        <v>148</v>
+      </c>
+      <c r="F20" s="46" t="s">
+        <v>149</v>
+      </c>
+      <c r="G20" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="H20" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="I20" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="D21" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
+      <c r="E21" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="F21" s="46" t="s">
+        <v>154</v>
+      </c>
+      <c r="G21" s="46" t="s">
+        <v>155</v>
+      </c>
+      <c r="H21" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="I21" s="46" t="s">
+        <v>157</v>
+      </c>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="D22" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
+      <c r="E22" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="F22" s="46" t="s">
+        <v>159</v>
+      </c>
+      <c r="G22" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="H22" s="46" t="s">
+        <v>161</v>
+      </c>
+      <c r="I22" s="46" t="s">
+        <v>162</v>
+      </c>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="D23" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40"/>
+      <c r="E23" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="G23" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="H23" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="I23" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="D24" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="40"/>
+      <c r="E24" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="F24" s="46" t="s">
+        <v>164</v>
+      </c>
+      <c r="G24" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="H24" s="46" t="s">
+        <v>166</v>
+      </c>
+      <c r="I24" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="44" t="s">
-        <v>108</v>
-      </c>
-      <c r="E25" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="40"/>
+        <v>53</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="F25" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="G25" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="H25" s="46" t="s">
+        <v>171</v>
+      </c>
+      <c r="I25" s="46" t="s">
+        <v>172</v>
+      </c>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
-      <c r="B26" s="2" t="s">
-        <v>109</v>
-      </c>
+      <c r="B26" s="2"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="2" t="s">
-        <v>110</v>
-      </c>
+      <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="40"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="40"/>
-      <c r="L28" s="40"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="39"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
-      <c r="B30" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="22" t="s">
+      <c r="B30" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="E30" s="46">
         <v>1</v>
       </c>
-      <c r="D30" s="44"/>
-      <c r="E30" s="40" t="s">
+      <c r="F30" s="46">
+        <v>2</v>
+      </c>
+      <c r="G30" s="46">
+        <v>2</v>
+      </c>
+      <c r="H30" s="46">
+        <v>4</v>
+      </c>
+      <c r="I30" s="46">
         <v>5</v>
       </c>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="40"/>
-      <c r="L30" s="40"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D31" s="44"/>
-      <c r="E31" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="40"/>
-      <c r="L31" s="40"/>
+        <v>61</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="40"/>
+      <c r="E31" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="2" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="44"/>
-      <c r="E32" s="40" t="s">
-        <v>112</v>
-      </c>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="40"/>
-      <c r="K32" s="40"/>
-      <c r="L32" s="40"/>
+        <v>187</v>
+      </c>
+      <c r="D32" s="40"/>
+      <c r="E32" s="46" t="s">
+        <v>174</v>
+      </c>
+      <c r="F32" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="G32" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="H32" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="I32" s="46" t="s">
+        <v>178</v>
+      </c>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="40"/>
-      <c r="K33" s="40"/>
-      <c r="L33" s="40"/>
+        <v>53</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D33" s="40"/>
+      <c r="E33" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="F33" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="G33" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="H33" s="46" t="s">
+        <v>171</v>
+      </c>
+      <c r="I33" s="46" t="s">
+        <v>172</v>
+      </c>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C34" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" s="44"/>
-      <c r="E34" s="41">
-        <v>41467</v>
-      </c>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="41"/>
-      <c r="K34" s="41"/>
-      <c r="L34" s="41"/>
+        <v>69</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="47">
+        <v>45335</v>
+      </c>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="47">
+        <v>45333</v>
+      </c>
+      <c r="I34" s="47">
+        <v>45332</v>
+      </c>
+      <c r="J34" s="37"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="37"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35" s="44"/>
-      <c r="E35" s="41">
-        <v>42050</v>
-      </c>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="41"/>
-      <c r="J35" s="41"/>
-      <c r="K35" s="41"/>
-      <c r="L35" s="41"/>
+        <v>70</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="D35" s="40"/>
+      <c r="E35" s="47">
+        <v>45334</v>
+      </c>
+      <c r="F35" s="47">
+        <v>45332</v>
+      </c>
+      <c r="G35" s="47">
+        <v>45331</v>
+      </c>
+      <c r="H35" s="47">
+        <v>45330</v>
+      </c>
+      <c r="I35" s="47">
+        <v>45329</v>
+      </c>
+      <c r="J35" s="37"/>
+      <c r="K35" s="37"/>
+      <c r="L35" s="37"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C36" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="D36" s="44"/>
-      <c r="E36" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="F36" s="40"/>
-      <c r="G36" s="40"/>
-      <c r="H36" s="40"/>
-      <c r="I36" s="40"/>
-      <c r="J36" s="40"/>
-      <c r="K36" s="40"/>
-      <c r="L36" s="40"/>
+        <v>72</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="D36" s="40"/>
+      <c r="E36" s="47">
+        <v>45336</v>
+      </c>
+      <c r="F36" s="47">
+        <v>45334</v>
+      </c>
+      <c r="G36" s="47">
+        <v>45333</v>
+      </c>
+      <c r="H36" s="47">
+        <v>45332</v>
+      </c>
+      <c r="I36" s="47">
+        <v>45331</v>
+      </c>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D37" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="E37" s="40"/>
-      <c r="F37" s="40"/>
-      <c r="G37" s="40"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="40"/>
-      <c r="J37" s="40"/>
-      <c r="K37" s="40"/>
-      <c r="L37" s="40"/>
+        <v>75</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37" s="40"/>
+      <c r="E37" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="G37" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="H37" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="I37" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="36"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="40"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="40"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="40"/>
+      <c r="B38" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="F38" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="G38" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="H38" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="I38" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="36"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="39"/>
-      <c r="F39" s="39"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="39"/>
-      <c r="J39" s="39"/>
-      <c r="K39" s="39"/>
-      <c r="L39" s="39"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="35"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
-      <c r="B40" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D40" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="E40" s="40"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="40"/>
-      <c r="K40" s="40"/>
-      <c r="L40" s="40"/>
+      <c r="B40" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="E40" s="46">
+        <v>1</v>
+      </c>
+      <c r="F40" s="46">
+        <v>2</v>
+      </c>
+      <c r="G40" s="46">
+        <v>4</v>
+      </c>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="36"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D41" s="44"/>
-      <c r="E41" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="40"/>
-      <c r="L41" s="40"/>
+        <v>187</v>
+      </c>
+      <c r="D41" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E41" s="46" t="s">
+        <v>179</v>
+      </c>
+      <c r="F41" s="46" t="s">
+        <v>181</v>
+      </c>
+      <c r="G41" s="46" t="s">
+        <v>183</v>
+      </c>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="36"/>
+      <c r="L41" s="36"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C42" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="D42" s="44"/>
-      <c r="E42" s="40" t="s">
-        <v>115</v>
-      </c>
-      <c r="F42" s="40"/>
-      <c r="G42" s="40"/>
-      <c r="H42" s="40"/>
-      <c r="I42" s="40"/>
-      <c r="J42" s="40"/>
-      <c r="K42" s="40"/>
-      <c r="L42" s="40"/>
+        <v>90</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D42" s="40"/>
+      <c r="E42" s="46" t="s">
+        <v>180</v>
+      </c>
+      <c r="F42" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="G42" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="H42" s="36"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="36"/>
+      <c r="L42" s="36"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="40"/>
-      <c r="F43" s="40"/>
-      <c r="G43" s="40"/>
-      <c r="H43" s="40"/>
-      <c r="I43" s="40"/>
-      <c r="J43" s="40"/>
-      <c r="K43" s="40"/>
-      <c r="L43" s="40"/>
+      <c r="B43" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D43" s="40"/>
+      <c r="E43" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="F43" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="G43" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="H43" s="36"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="36"/>
+      <c r="L43" s="36"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C44" s="6"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="39"/>
-      <c r="F44" s="39"/>
-      <c r="G44" s="39"/>
-      <c r="H44" s="39"/>
-      <c r="I44" s="39"/>
-      <c r="J44" s="39"/>
-      <c r="K44" s="39"/>
-      <c r="L44" s="39"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="35"/>
+      <c r="J44" s="35"/>
+      <c r="K44" s="35"/>
+      <c r="L44" s="35"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C45" s="2" t="s">
+      <c r="B45" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="E45" s="46">
+        <v>1</v>
+      </c>
+      <c r="F45" s="46">
+        <v>2</v>
+      </c>
+      <c r="G45" s="46">
         <v>3</v>
       </c>
-      <c r="D45" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="E45" s="40"/>
-      <c r="F45" s="40"/>
-      <c r="G45" s="40"/>
-      <c r="H45" s="40"/>
-      <c r="I45" s="40"/>
-      <c r="J45" s="40"/>
-      <c r="K45" s="40"/>
-      <c r="L45" s="40"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="36"/>
+      <c r="K45" s="36"/>
+      <c r="L45" s="36"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E46" s="46" t="s">
+        <v>179</v>
+      </c>
+      <c r="F46" s="46" t="s">
+        <v>181</v>
+      </c>
+      <c r="G46" s="46" t="s">
+        <v>183</v>
+      </c>
+      <c r="H46" s="36"/>
+      <c r="I46" s="36"/>
+      <c r="J46" s="36"/>
+      <c r="K46" s="36"/>
+      <c r="L46" s="36"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B47" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C47" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D46" s="44"/>
-      <c r="E46" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="F46" s="40"/>
-      <c r="G46" s="40"/>
-      <c r="H46" s="40"/>
-      <c r="I46" s="40"/>
-      <c r="J46" s="40"/>
-      <c r="K46" s="40"/>
-      <c r="L46" s="40"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E47" s="42"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="42"/>
-      <c r="H47" s="42"/>
-      <c r="I47" s="42"/>
-      <c r="J47" s="42"/>
-      <c r="K47" s="42"/>
-      <c r="L47" s="42"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="46" t="s">
+        <v>180</v>
+      </c>
+      <c r="F47" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="G47" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="H47" s="38"/>
+      <c r="I47" s="38"/>
+      <c r="J47" s="38"/>
+      <c r="K47" s="38"/>
+      <c r="L47" s="38"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E48" s="43"/>
-      <c r="F48" s="43"/>
-      <c r="G48" s="43"/>
-      <c r="H48" s="43"/>
-      <c r="I48" s="43"/>
-      <c r="J48" s="43"/>
-      <c r="K48" s="43"/>
-      <c r="L48" s="43"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="39"/>
+      <c r="I48" s="39"/>
+      <c r="J48" s="39"/>
+      <c r="K48" s="39"/>
+      <c r="L48" s="39"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/참고/s100 register docs.xlsx
+++ b/참고/s100 register docs.xlsx
@@ -1,43 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2024\S100-Register\참고\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0394BB-D444-4999-8FF6-50053C816B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1185" yWindow="1080" windowWidth="24300" windowHeight="18135" activeTab="2"/>
+    <workbookView xWindow="20895" yWindow="975" windowWidth="14430" windowHeight="18675" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="샘플 데이터 입력" sheetId="2" r:id="rId2"/>
-    <sheet name="샘플 데이터" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
+    <sheet name="샘플 데이터" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="238">
   <si>
     <t>S100_RE_Register</t>
   </si>
@@ -626,14 +617,202 @@
   </si>
   <si>
     <t>JSONField</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S100_RE_Register</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>operatingLanguage</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>contentSummary</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>uniformResourceIdentifier</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateOfLastChange</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S100_RE_RegisterItem</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemIdentifier</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>s100_RE_Register</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>definition</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>remarks</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemStatus</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>alias</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>camelCase</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>definitionSource</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>refrence</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>similarity</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>justification</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>proposedChange</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S100_RE_ManagementInfo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>s100_RE_RegisterItem</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>proposalType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>submittingOrganisation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateAccepted</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateProposed</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateAmended</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>proposalStatus</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>controlBodyNotes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S100_RE_ReferenceSource</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>referenceIdentifier</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sourceDocument</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S100_RE_Reference</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Class Diagram</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Django Models</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data Types</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CharacterString</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RE_Locale</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CI_OnlineResource</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S100_RE_ProposalStatus</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CI_Citation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0..1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0..*</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ForeignKey</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>null=True</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CharField(choices)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -684,8 +863,25 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="4" tint="0.39997558519241921"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -722,8 +918,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -848,29 +1050,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -906,10 +1142,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -924,7 +1160,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -936,7 +1172,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -951,10 +1187,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -975,10 +1211,52 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -990,14 +1268,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1317,7 +1601,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B4:I44"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -1337,682 +1621,682 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B5" s="2"/>
-      <c r="C5" s="42" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="43"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="41" t="s">
+      <c r="D5" s="56"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="41"/>
-      <c r="I5" s="2"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="1"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="2"/>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="1"/>
+      <c r="C6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
+      <c r="E6" s="6"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="2"/>
+      <c r="I6" s="1"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="2"/>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="1"/>
+      <c r="C7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2" t="s">
+      <c r="E7" s="6"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="2"/>
+      <c r="I7" s="1"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="2"/>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="1"/>
+      <c r="C8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2" t="s">
+      <c r="E8" s="6"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="2"/>
+      <c r="I8" s="1"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="2"/>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="1"/>
+      <c r="C9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2" t="s">
+      <c r="E9" s="6"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="2"/>
+      <c r="I9" s="1"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="2"/>
-      <c r="C10" s="8" t="s">
+      <c r="B10" s="1"/>
+      <c r="C10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="41" t="s">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="41"/>
-      <c r="I11" s="2"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="1"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B12" s="2"/>
-      <c r="C12" s="42" t="s">
+      <c r="B12" s="1"/>
+      <c r="C12" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="43"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2" t="s">
+      <c r="D12" s="56"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="2"/>
+      <c r="I12" s="1"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="2"/>
-      <c r="C13" s="6" t="s">
+      <c r="B13" s="1"/>
+      <c r="C13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2" t="s">
+      <c r="E13" s="6"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="2"/>
+      <c r="I13" s="1"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="2"/>
-      <c r="C14" s="6" t="s">
+      <c r="B14" s="1"/>
+      <c r="C14" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2" t="s">
+      <c r="E14" s="6"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I14" s="2"/>
+      <c r="I14" s="1"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="2"/>
-      <c r="C15" s="6" t="s">
+      <c r="B15" s="1"/>
+      <c r="C15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2" t="s">
+      <c r="F15" s="1"/>
+      <c r="G15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="2"/>
+      <c r="I15" s="1"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="2"/>
-      <c r="C16" s="6" t="s">
+      <c r="B16" s="1"/>
+      <c r="C16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2" t="s">
+      <c r="F16" s="1"/>
+      <c r="G16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I16" s="2"/>
+      <c r="I16" s="1"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B17" s="2"/>
-      <c r="C17" s="6" t="s">
+      <c r="B17" s="1"/>
+      <c r="C17" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2" t="s">
+      <c r="E17" s="6"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I17" s="2"/>
+      <c r="I17" s="1"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="2"/>
-      <c r="C18" s="6" t="s">
+      <c r="B18" s="1"/>
+      <c r="C18" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2" t="s">
+      <c r="F18" s="1"/>
+      <c r="G18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I18" s="2"/>
+      <c r="I18" s="1"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B19" s="2"/>
-      <c r="C19" s="6" t="s">
+      <c r="B19" s="1"/>
+      <c r="C19" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2" t="s">
+      <c r="F19" s="1"/>
+      <c r="G19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I19" s="2"/>
+      <c r="I19" s="1"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B20" s="2"/>
-      <c r="C20" s="6" t="s">
+      <c r="B20" s="1"/>
+      <c r="C20" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2" t="s">
+      <c r="F20" s="1"/>
+      <c r="G20" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I20" s="2"/>
+      <c r="I20" s="1"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B21" s="2"/>
-      <c r="C21" s="6" t="s">
+      <c r="B21" s="1"/>
+      <c r="C21" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2" t="s">
+      <c r="F21" s="1"/>
+      <c r="G21" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H21" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I21" s="2"/>
+      <c r="I21" s="1"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B22" s="2"/>
-      <c r="C22" s="6" t="s">
+      <c r="B22" s="1"/>
+      <c r="C22" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B23" s="2"/>
-      <c r="C23" s="6" t="s">
+      <c r="B23" s="1"/>
+      <c r="C23" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="41" t="s">
+      <c r="F23" s="1"/>
+      <c r="G23" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="H23" s="41"/>
-      <c r="I23" s="2"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="1"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B24" s="2"/>
-      <c r="C24" s="8" t="s">
+      <c r="B24" s="1"/>
+      <c r="C24" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2" t="s">
+      <c r="F24" s="1"/>
+      <c r="G24" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H24" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I24" s="2"/>
+      <c r="I24" s="1"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2" t="s">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="H25" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I25" s="2"/>
+      <c r="I25" s="1"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B26" s="2"/>
-      <c r="C26" s="42" t="s">
+      <c r="B26" s="1"/>
+      <c r="C26" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="D26" s="43"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2" t="s">
+      <c r="D26" s="56"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="H26" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I26" s="2"/>
+      <c r="I26" s="1"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B27" s="2"/>
-      <c r="C27" s="6" t="s">
+      <c r="B27" s="1"/>
+      <c r="C27" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2" t="s">
+      <c r="E27" s="6"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="H27" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I27" s="2"/>
+      <c r="I27" s="1"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B28" s="2"/>
-      <c r="C28" s="6" t="s">
+      <c r="B28" s="1"/>
+      <c r="C28" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2" t="s">
+      <c r="E28" s="6"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I28" s="2"/>
+      <c r="I28" s="1"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B29" s="2"/>
-      <c r="C29" s="6" t="s">
+      <c r="B29" s="1"/>
+      <c r="C29" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2" t="s">
+      <c r="E29" s="6"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="H29" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I29" s="2"/>
+      <c r="I29" s="1"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B30" s="2"/>
-      <c r="C30" s="6" t="s">
+      <c r="B30" s="1"/>
+      <c r="C30" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B31" s="2"/>
-      <c r="C31" s="6" t="s">
+      <c r="B31" s="1"/>
+      <c r="C31" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="41" t="s">
+      <c r="E31" s="6"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="H31" s="41"/>
-      <c r="I31" s="2"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="1"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B32" s="2"/>
-      <c r="C32" s="6" t="s">
+      <c r="B32" s="1"/>
+      <c r="C32" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2" t="s">
+      <c r="E32" s="6"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="H32" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I32" s="2"/>
+      <c r="I32" s="1"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B33" s="2"/>
-      <c r="C33" s="6" t="s">
+      <c r="B33" s="1"/>
+      <c r="C33" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2" t="s">
+      <c r="E33" s="6"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="H33" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="I33" s="2"/>
+      <c r="I33" s="1"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B34" s="2"/>
-      <c r="C34" s="8" t="s">
+      <c r="B34" s="1"/>
+      <c r="C34" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E34" s="15" t="s">
+      <c r="E34" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2" t="s">
+      <c r="F34" s="1"/>
+      <c r="G34" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="H34" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="I34" s="2"/>
+      <c r="I34" s="1"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2" t="s">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="H35" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="I35" s="2"/>
+      <c r="I35" s="1"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B36" s="2"/>
-      <c r="C36" s="42" t="s">
+      <c r="B36" s="1"/>
+      <c r="C36" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="D36" s="43"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2" t="s">
+      <c r="D36" s="56"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="H36" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I36" s="2"/>
+      <c r="I36" s="1"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B37" s="2"/>
-      <c r="C37" s="6" t="s">
+      <c r="B37" s="1"/>
+      <c r="C37" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="E37" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2" t="s">
+      <c r="F37" s="1"/>
+      <c r="G37" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="H37" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I37" s="2"/>
+      <c r="I37" s="1"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B38" s="2"/>
-      <c r="C38" s="6" t="s">
+      <c r="B38" s="1"/>
+      <c r="C38" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B39" s="2"/>
-      <c r="C39" s="8" t="s">
+      <c r="B39" s="1"/>
+      <c r="C39" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D39" s="16" t="s">
+      <c r="D39" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="E39" s="10"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B41" s="2"/>
-      <c r="C41" s="42" t="s">
+      <c r="B41" s="1"/>
+      <c r="C41" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="D41" s="43"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
+      <c r="D41" s="56"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B42" s="2"/>
-      <c r="C42" s="6" t="s">
+      <c r="B42" s="1"/>
+      <c r="C42" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E42" s="11" t="s">
+      <c r="E42" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B43" s="2"/>
-      <c r="C43" s="8" t="s">
+      <c r="B43" s="1"/>
+      <c r="C43" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D43" s="13" t="s">
+      <c r="D43" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="E43" s="10"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2032,8 +2316,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A2:O48"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
@@ -2041,1294 +2325,1292 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="26.5" style="27" customWidth="1"/>
-    <col min="3" max="3" width="24.875" style="27" customWidth="1"/>
-    <col min="4" max="4" width="5.625" style="27" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="32" customWidth="1"/>
-    <col min="6" max="6" width="25.375" style="27" customWidth="1"/>
-    <col min="7" max="7" width="9" style="27"/>
-    <col min="8" max="8" width="1.75" style="27" customWidth="1"/>
-    <col min="9" max="9" width="25" style="27" customWidth="1"/>
-    <col min="10" max="12" width="2" style="27" customWidth="1"/>
-    <col min="13" max="13" width="39.75" style="27" customWidth="1"/>
-    <col min="14" max="14" width="2.25" style="27" customWidth="1"/>
-    <col min="15" max="15" width="4.25" style="1" customWidth="1"/>
-    <col min="16" max="16" width="9" style="1"/>
+    <col min="2" max="2" width="26.5" style="26" customWidth="1"/>
+    <col min="3" max="3" width="24.875" style="26" customWidth="1"/>
+    <col min="4" max="4" width="5.625" style="26" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="31" customWidth="1"/>
+    <col min="6" max="6" width="25.375" style="26" customWidth="1"/>
+    <col min="7" max="7" width="9" style="26"/>
+    <col min="8" max="8" width="1.75" style="26" customWidth="1"/>
+    <col min="9" max="9" width="25" style="26" customWidth="1"/>
+    <col min="10" max="12" width="2" style="26" customWidth="1"/>
+    <col min="13" max="13" width="39.75" style="26" customWidth="1"/>
+    <col min="14" max="14" width="2.25" style="26" customWidth="1"/>
+    <col min="15" max="15" width="4.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="21" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="1"/>
+      <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="5" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="25" t="s">
+      <c r="D5" s="2"/>
+      <c r="E5" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I5" s="2" t="s">
+      <c r="F5" s="10"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K5" s="2" t="s">
+      <c r="J5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="L5" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="M5" s="2" t="s">
+      <c r="L5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="N5" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="O5" s="2"/>
+      <c r="N5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O5" s="1"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="25" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I6" s="2" t="s">
+      <c r="F6" s="10"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K6" s="2" t="s">
+      <c r="J6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="L6" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="M6" s="2" t="s">
+      <c r="L6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="N6" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="O6" s="2"/>
+      <c r="N6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O6" s="1"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="25" t="s">
+      <c r="D7" s="2"/>
+      <c r="E7" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I7" s="2" t="s">
+      <c r="F7" s="10"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K7" s="2" t="s">
+      <c r="J7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="M7" s="2" t="s">
+      <c r="L7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="O7" s="2"/>
+      <c r="N7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O7" s="1"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="25" t="s">
+      <c r="D8" s="2"/>
+      <c r="E8" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I8" s="2" t="s">
+      <c r="F8" s="10"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K8" s="2" t="s">
+      <c r="J8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="L8" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="M8" s="2" t="s">
+      <c r="L8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="N8" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="O8" s="2"/>
+      <c r="N8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O8" s="1"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="26">
+      <c r="D9" s="2"/>
+      <c r="E9" s="25">
         <v>44838</v>
       </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I9" s="2" t="s">
+      <c r="F9" s="19"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K9" s="2" t="s">
+      <c r="J9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="L9" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="M9" s="2" t="s">
+      <c r="L9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="N9" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="O9" s="2"/>
+      <c r="N9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O9" s="1"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2" t="s">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2" t="s">
+      <c r="F10" s="10"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2" t="s">
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="5" t="s">
+      <c r="A12" s="1"/>
+      <c r="B12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="5" t="s">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2" t="s">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="25" t="s">
+      <c r="D13" s="2"/>
+      <c r="E13" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I13" s="2" t="s">
+      <c r="F13" s="10"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K13" s="2" t="s">
+      <c r="J13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="L13" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="M13" s="2" t="s">
+      <c r="L13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M13" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="N13" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="O13" s="2"/>
+      <c r="N13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O13" s="1"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2" t="s">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="25" t="s">
+      <c r="D14" s="2"/>
+      <c r="E14" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I14" s="2" t="s">
+      <c r="F14" s="10"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K14" s="2" t="s">
+      <c r="J14" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="L14" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="M14" s="2" t="s">
+      <c r="L14" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M14" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="N14" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="O14" s="2"/>
+      <c r="N14" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O14" s="1"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2" t="s">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2" t="s">
+      <c r="E15" s="24"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2" t="s">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2" t="s">
+      <c r="E16" s="24"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2" t="s">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="25" t="s">
+      <c r="D17" s="2"/>
+      <c r="E17" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I17" s="2" t="s">
+      <c r="F17" s="10"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J17" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K17" s="2" t="s">
+      <c r="J17" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="L17" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="M17" s="2" t="s">
+      <c r="L17" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M17" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="N17" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="O17" s="2"/>
+      <c r="N17" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O17" s="1"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2" t="s">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2" t="s">
+      <c r="E18" s="24"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2" t="s">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2" t="s">
+      <c r="E19" s="24"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2" t="s">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="25"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2" t="s">
+      <c r="E20" s="24"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2" t="s">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="25"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2" t="s">
+      <c r="E21" s="24"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2" t="s">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="25"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2" t="s">
+      <c r="E22" s="24"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2" t="s">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="25"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2" t="s">
+      <c r="E23" s="24"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2" t="s">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="25"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2" t="s">
+      <c r="E24" s="24"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2" t="s">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="3" t="s">
+      <c r="C25" s="1"/>
+      <c r="D25" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E25" s="25" t="s">
+      <c r="E25" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="F25" s="11"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2" t="s">
+      <c r="F25" s="10"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2" t="s">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2" t="s">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2" t="s">
+      <c r="C26" s="1"/>
+      <c r="D26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="25"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2" t="s">
+      <c r="E26" s="24"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2" t="s">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2" t="s">
+      <c r="C27" s="1"/>
+      <c r="D27" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E27" s="25"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2" t="s">
+      <c r="E27" s="24"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
-      <c r="B29" s="5" t="s">
+      <c r="A29" s="1"/>
+      <c r="B29" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="5" t="s">
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2" t="s">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="25" t="s">
+      <c r="D30" s="2"/>
+      <c r="E30" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="F30" s="11"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I30" s="2" t="s">
+      <c r="F30" s="10"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="J30" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K30" s="2" t="s">
+      <c r="J30" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K30" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="L30" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="M30" s="2" t="s">
+      <c r="L30" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M30" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N30" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="O30" s="2"/>
+      <c r="N30" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O30" s="1"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2" t="s">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="25" t="s">
+      <c r="D31" s="2"/>
+      <c r="E31" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="F31" s="11"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I31" s="2" t="s">
+      <c r="F31" s="10"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I31" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J31" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K31" s="2" t="s">
+      <c r="J31" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K31" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="L31" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="M31" s="2" t="s">
+      <c r="L31" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M31" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="N31" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="O31" s="2"/>
+      <c r="N31" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O31" s="1"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2" t="s">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="25" t="s">
+      <c r="D32" s="2"/>
+      <c r="E32" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="F32" s="11"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I32" s="2" t="s">
+      <c r="F32" s="10"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I32" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J32" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K32" s="2" t="s">
+      <c r="J32" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K32" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="L32" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="M32" s="2" t="s">
+      <c r="L32" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M32" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N32" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="O32" s="2"/>
+      <c r="N32" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O32" s="1"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2" t="s">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E33" s="25"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2" t="s">
+      <c r="E33" s="24"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2" t="s">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="26">
+      <c r="D34" s="2"/>
+      <c r="E34" s="25">
         <v>41467</v>
       </c>
-      <c r="F34" s="20"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I34" s="2" t="s">
+      <c r="F34" s="19"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I34" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J34" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K34" s="2" t="s">
+      <c r="J34" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K34" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="L34" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="M34" s="2" t="s">
+      <c r="L34" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M34" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="N34" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="O34" s="2"/>
+      <c r="N34" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O34" s="1"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2" t="s">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="26">
+      <c r="D35" s="2"/>
+      <c r="E35" s="25">
         <v>42050</v>
       </c>
-      <c r="F35" s="20"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I35" s="2" t="s">
+      <c r="F35" s="19"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I35" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J35" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K35" s="2" t="s">
+      <c r="J35" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K35" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="L35" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="M35" s="2" t="s">
+      <c r="L35" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M35" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="N35" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="O35" s="2"/>
+      <c r="N35" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O35" s="1"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2" t="s">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="25" t="s">
+      <c r="D36" s="2"/>
+      <c r="E36" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="F36" s="11"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I36" s="2" t="s">
+      <c r="F36" s="10"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I36" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="J36" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K36" s="2" t="s">
+      <c r="J36" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K36" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="L36" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="M36" s="2" t="s">
+      <c r="L36" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M36" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="N36" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="O36" s="2"/>
+      <c r="N36" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O36" s="1"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2" t="s">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E37" s="25"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2" t="s">
+      <c r="E37" s="24"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A39" s="2"/>
-      <c r="B39" s="5" t="s">
+      <c r="A39" s="1"/>
+      <c r="B39" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="5" t="s">
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2" t="s">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E40" s="25"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2" t="s">
+      <c r="E40" s="24"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2" t="s">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D41" s="3"/>
-      <c r="E41" s="25" t="s">
+      <c r="D41" s="2"/>
+      <c r="E41" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="F41" s="11"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I41" s="2" t="s">
+      <c r="F41" s="10"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I41" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="J41" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K41" s="2" t="s">
+      <c r="J41" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K41" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="L41" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="M41" s="2" t="s">
+      <c r="L41" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M41" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N41" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="O41" s="2"/>
+      <c r="N41" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O41" s="1"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2" t="s">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="D42" s="3"/>
-      <c r="E42" s="25" t="s">
+      <c r="D42" s="2"/>
+      <c r="E42" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="F42" s="11"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I42" s="2" t="s">
+      <c r="F42" s="10"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I42" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="J42" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K42" s="2" t="s">
+      <c r="J42" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K42" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="L42" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="M42" s="2" t="s">
+      <c r="L42" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M42" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="N42" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="O42" s="2"/>
+      <c r="N42" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O42" s="1"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A44" s="2"/>
-      <c r="B44" s="5" t="s">
+      <c r="A44" s="1"/>
+      <c r="B44" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="5" t="s">
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2" t="s">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E45" s="25"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2" t="s">
+      <c r="E45" s="24"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2" t="s">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D46" s="3"/>
-      <c r="E46" s="25" t="s">
+      <c r="D46" s="2"/>
+      <c r="E46" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="F46" s="11"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I46" s="2" t="s">
+      <c r="F46" s="10"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I46" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="J46" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K46" s="2" t="s">
+      <c r="J46" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K46" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="L46" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="M46" s="2" t="s">
+      <c r="L46" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M46" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N46" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="O46" s="2"/>
+      <c r="N46" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O46" s="1"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="E47" s="28"/>
-      <c r="F47" s="29"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="28"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="E48" s="30"/>
-      <c r="F48" s="31"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -3337,1128 +3619,1741 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15018C7E-F83F-476C-A2D1-AB9437066F8E}">
+  <dimension ref="A2:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="26.5" style="27" customWidth="1"/>
-    <col min="3" max="3" width="24.875" style="27" customWidth="1"/>
-    <col min="4" max="4" width="5.125" style="32" customWidth="1"/>
-    <col min="5" max="9" width="28.75" style="32" customWidth="1"/>
-    <col min="10" max="11" width="21.5" style="32" customWidth="1"/>
-    <col min="12" max="12" width="21.5" style="27" customWidth="1"/>
+    <col min="1" max="1" width="9" style="42"/>
+    <col min="2" max="2" width="26.875" style="44" customWidth="1"/>
+    <col min="3" max="3" width="22.875" style="44" customWidth="1"/>
+    <col min="4" max="4" width="5.75" style="44" customWidth="1"/>
+    <col min="5" max="5" width="17.125" style="44" customWidth="1"/>
+    <col min="6" max="6" width="11.125" style="44" customWidth="1"/>
+    <col min="7" max="7" width="4.375" style="42" customWidth="1"/>
+    <col min="8" max="10" width="9" style="42"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C2" s="58" t="s">
+        <v>225</v>
+      </c>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="60"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C3" s="61" t="s">
+        <v>223</v>
+      </c>
+      <c r="D3" s="62"/>
+      <c r="E3" s="61" t="s">
+        <v>224</v>
+      </c>
+      <c r="F3" s="62"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="43" t="s">
+        <v>191</v>
+      </c>
+      <c r="C4" s="45"/>
+      <c r="D4" s="46">
+        <v>1</v>
+      </c>
+      <c r="E4" s="45"/>
+      <c r="F4" s="46"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="44" t="s">
+        <v>192</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>226</v>
+      </c>
+      <c r="D5" s="47"/>
+      <c r="E5" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="F5" s="47"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>227</v>
+      </c>
+      <c r="D6" s="47"/>
+      <c r="E6" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="F6" s="47"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="44" t="s">
+        <v>194</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>226</v>
+      </c>
+      <c r="D7" s="47"/>
+      <c r="E7" s="49" t="s">
+        <v>186</v>
+      </c>
+      <c r="F7" s="47"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="44" t="s">
+        <v>195</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="D8" s="47"/>
+      <c r="E8" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="F8" s="47"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="44" t="s">
+        <v>196</v>
+      </c>
+      <c r="C9" s="49" t="s">
+        <v>228</v>
+      </c>
+      <c r="D9" s="47"/>
+      <c r="E9" s="49" t="s">
+        <v>188</v>
+      </c>
+      <c r="F9" s="47"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C10" s="49"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="47"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="43" t="s">
+        <v>197</v>
+      </c>
+      <c r="C11" s="45"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="46"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="50" t="s">
+        <v>199</v>
+      </c>
+      <c r="C12" s="49"/>
+      <c r="D12" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="53" t="s">
+        <v>235</v>
+      </c>
+      <c r="F12" s="47"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="44" t="s">
+        <v>198</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>230</v>
+      </c>
+      <c r="D13" s="47"/>
+      <c r="E13" s="49" t="s">
+        <v>189</v>
+      </c>
+      <c r="F13" s="47"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="44" t="s">
+        <v>192</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>226</v>
+      </c>
+      <c r="D14" s="47"/>
+      <c r="E14" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="F14" s="47"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="44" t="s">
+        <v>200</v>
+      </c>
+      <c r="C15" s="49" t="s">
+        <v>226</v>
+      </c>
+      <c r="D15" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="E15" s="49" t="s">
+        <v>186</v>
+      </c>
+      <c r="F15" s="47" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="44" t="s">
+        <v>201</v>
+      </c>
+      <c r="C16" s="49" t="s">
+        <v>226</v>
+      </c>
+      <c r="D16" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="E16" s="49" t="s">
+        <v>186</v>
+      </c>
+      <c r="F16" s="47" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="C17" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="47"/>
+      <c r="E17" s="49" t="s">
+        <v>237</v>
+      </c>
+      <c r="F17" s="47"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="C18" s="49" t="s">
+        <v>226</v>
+      </c>
+      <c r="D18" s="47" t="s">
+        <v>234</v>
+      </c>
+      <c r="E18" s="49" t="s">
+        <v>190</v>
+      </c>
+      <c r="F18" s="47" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="44" t="s">
+        <v>204</v>
+      </c>
+      <c r="C19" s="49" t="s">
+        <v>226</v>
+      </c>
+      <c r="D19" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="E19" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="F19" s="47" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="44" t="s">
+        <v>205</v>
+      </c>
+      <c r="C20" s="49" t="s">
+        <v>226</v>
+      </c>
+      <c r="D20" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="E20" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="F20" s="47" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="44" t="s">
+        <v>206</v>
+      </c>
+      <c r="C21" s="49" t="s">
+        <v>226</v>
+      </c>
+      <c r="D21" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="E21" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="F21" s="47" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="44" t="s">
+        <v>207</v>
+      </c>
+      <c r="C22" s="49" t="s">
+        <v>226</v>
+      </c>
+      <c r="D22" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="E22" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="F22" s="47" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="44" t="s">
+        <v>208</v>
+      </c>
+      <c r="C23" s="49" t="s">
+        <v>226</v>
+      </c>
+      <c r="D23" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="E23" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="F23" s="47" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="44" t="s">
+        <v>209</v>
+      </c>
+      <c r="C24" s="49" t="s">
+        <v>226</v>
+      </c>
+      <c r="D24" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="E24" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="F24" s="47" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C25" s="49"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="47"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="43" t="s">
+        <v>210</v>
+      </c>
+      <c r="C26" s="45"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="46"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="50" t="s">
+        <v>211</v>
+      </c>
+      <c r="C27" s="49"/>
+      <c r="D27" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" s="53" t="s">
+        <v>235</v>
+      </c>
+      <c r="F27" s="47"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="44" t="s">
+        <v>212</v>
+      </c>
+      <c r="C28" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="47"/>
+      <c r="E28" s="49" t="s">
+        <v>237</v>
+      </c>
+      <c r="F28" s="47"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="44" t="s">
+        <v>213</v>
+      </c>
+      <c r="C29" s="49" t="s">
+        <v>226</v>
+      </c>
+      <c r="D29" s="47"/>
+      <c r="E29" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="F29" s="47"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="44" t="s">
+        <v>209</v>
+      </c>
+      <c r="C30" s="49" t="s">
+        <v>226</v>
+      </c>
+      <c r="D30" s="47"/>
+      <c r="E30" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="F30" s="47"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B31" s="44" t="s">
+        <v>214</v>
+      </c>
+      <c r="C31" s="49" t="s">
+        <v>228</v>
+      </c>
+      <c r="D31" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="E31" s="49" t="s">
+        <v>188</v>
+      </c>
+      <c r="F31" s="47" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B32" s="44" t="s">
+        <v>215</v>
+      </c>
+      <c r="C32" s="49" t="s">
+        <v>228</v>
+      </c>
+      <c r="D32" s="47"/>
+      <c r="E32" s="49" t="s">
+        <v>188</v>
+      </c>
+      <c r="F32" s="47"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33" s="44" t="s">
+        <v>216</v>
+      </c>
+      <c r="C33" s="49" t="s">
+        <v>228</v>
+      </c>
+      <c r="D33" s="47"/>
+      <c r="E33" s="49" t="s">
+        <v>188</v>
+      </c>
+      <c r="F33" s="47"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34" s="44" t="s">
+        <v>217</v>
+      </c>
+      <c r="C34" s="49" t="s">
+        <v>231</v>
+      </c>
+      <c r="D34" s="47"/>
+      <c r="E34" s="49" t="s">
+        <v>237</v>
+      </c>
+      <c r="F34" s="47"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" s="44" t="s">
+        <v>218</v>
+      </c>
+      <c r="C35" s="49" t="s">
+        <v>226</v>
+      </c>
+      <c r="D35" s="47" t="s">
+        <v>234</v>
+      </c>
+      <c r="E35" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="F35" s="47" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C36" s="49"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="47"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37" s="43" t="s">
+        <v>219</v>
+      </c>
+      <c r="C37" s="45"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="46"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="50" t="s">
+        <v>211</v>
+      </c>
+      <c r="C38" s="49"/>
+      <c r="D38" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="F38" s="47"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39" s="44" t="s">
+        <v>220</v>
+      </c>
+      <c r="C39" s="49" t="s">
+        <v>226</v>
+      </c>
+      <c r="D39" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="E39" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="F39" s="47" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B40" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="C40" s="49" t="s">
+        <v>232</v>
+      </c>
+      <c r="D40" s="47"/>
+      <c r="E40" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="F40" s="47"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B41" s="44" t="s">
+        <v>207</v>
+      </c>
+      <c r="C41" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="D41" s="47"/>
+      <c r="E41" s="49" t="s">
+        <v>237</v>
+      </c>
+      <c r="F41" s="47"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C42" s="49"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="47"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B43" s="43" t="s">
+        <v>222</v>
+      </c>
+      <c r="C43" s="45"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="45"/>
+      <c r="F43" s="46"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B44" s="50" t="s">
+        <v>211</v>
+      </c>
+      <c r="C44" s="49"/>
+      <c r="D44" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="E44" s="53" t="s">
+        <v>235</v>
+      </c>
+      <c r="F44" s="47"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B45" s="44" t="s">
+        <v>220</v>
+      </c>
+      <c r="C45" s="49" t="s">
+        <v>226</v>
+      </c>
+      <c r="D45" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="E45" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="F45" s="47" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B46" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="C46" s="51" t="s">
+        <v>232</v>
+      </c>
+      <c r="D46" s="48"/>
+      <c r="E46" s="51" t="s">
+        <v>187</v>
+      </c>
+      <c r="F46" s="48"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A2:L48"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="26.5" style="26" customWidth="1"/>
+    <col min="3" max="3" width="24.875" style="26" customWidth="1"/>
+    <col min="4" max="4" width="5.125" style="31" customWidth="1"/>
+    <col min="5" max="9" width="28.75" style="31" customWidth="1"/>
+    <col min="10" max="11" width="21.5" style="31" customWidth="1"/>
+    <col min="12" max="12" width="21.5" style="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="2"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="34" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="H3" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="J3" s="34" t="s">
+      <c r="J3" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="K3" s="34" t="s">
+      <c r="K3" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="L3" s="34" t="s">
+      <c r="L3" s="33" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="1"/>
+      <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="46" t="s">
+      <c r="D5" s="39"/>
+      <c r="E5" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="46" t="s">
+      <c r="D6" s="39"/>
+      <c r="E6" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="46" t="s">
+      <c r="D7" s="39"/>
+      <c r="E7" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="46" t="s">
+      <c r="D8" s="39"/>
+      <c r="E8" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="47">
+      <c r="D9" s="39"/>
+      <c r="E9" s="41">
         <v>45335</v>
       </c>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="5" t="s">
+      <c r="A12" s="1"/>
+      <c r="B12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="45" t="s">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="E13" s="46">
+      <c r="E13" s="40">
         <v>1</v>
       </c>
-      <c r="F13" s="46">
+      <c r="F13" s="40">
         <v>1</v>
       </c>
-      <c r="G13" s="46">
+      <c r="G13" s="40">
         <v>1</v>
       </c>
-      <c r="H13" s="46">
+      <c r="H13" s="40">
         <v>1</v>
       </c>
-      <c r="I13" s="46">
+      <c r="I13" s="40">
         <v>1</v>
       </c>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2" t="s">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D14" s="40"/>
-      <c r="E14" s="46">
+      <c r="D14" s="39"/>
+      <c r="E14" s="40">
         <v>1</v>
       </c>
-      <c r="F14" s="46">
+      <c r="F14" s="40">
         <v>2</v>
       </c>
-      <c r="G14" s="46">
+      <c r="G14" s="40">
         <v>3</v>
       </c>
-      <c r="H14" s="46">
+      <c r="H14" s="40">
         <v>4</v>
       </c>
-      <c r="I14" s="46">
+      <c r="I14" s="40">
         <v>5</v>
       </c>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2" t="s">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D15" s="40"/>
-      <c r="E15" s="46" t="s">
+      <c r="D15" s="39"/>
+      <c r="E15" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="F15" s="46" t="s">
+      <c r="F15" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="G15" s="46" t="s">
+      <c r="G15" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="H15" s="46" t="s">
+      <c r="H15" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="I15" s="46" t="s">
+      <c r="I15" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2" t="s">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="46" t="s">
+      <c r="E16" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="F16" s="46" t="s">
+      <c r="F16" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="G16" s="46" t="s">
+      <c r="G16" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="H16" s="46" t="s">
+      <c r="H16" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="I16" s="46" t="s">
+      <c r="I16" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2" t="s">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="46" t="s">
+      <c r="E17" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="F17" s="46" t="s">
+      <c r="F17" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="G17" s="46" t="s">
+      <c r="G17" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="H17" s="46" t="s">
+      <c r="H17" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="I17" s="46" t="s">
+      <c r="I17" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2" t="s">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="40"/>
-      <c r="E18" s="46" t="s">
+      <c r="D18" s="39"/>
+      <c r="E18" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="46" t="s">
+      <c r="F18" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="G18" s="46" t="s">
+      <c r="G18" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="H18" s="46" t="s">
+      <c r="H18" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="I18" s="46" t="s">
+      <c r="I18" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2" t="s">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="46" t="s">
+      <c r="E19" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="F19" s="46" t="s">
+      <c r="F19" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="G19" s="46" t="s">
+      <c r="G19" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="H19" s="46" t="s">
+      <c r="H19" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="I19" s="46" t="s">
+      <c r="I19" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2" t="s">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="46" t="s">
+      <c r="E20" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="F20" s="46" t="s">
+      <c r="F20" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="G20" s="46" t="s">
+      <c r="G20" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="H20" s="46" t="s">
+      <c r="H20" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="I20" s="46" t="s">
+      <c r="I20" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2" t="s">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="46" t="s">
+      <c r="E21" s="40" t="s">
         <v>153</v>
       </c>
-      <c r="F21" s="46" t="s">
+      <c r="F21" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="G21" s="46" t="s">
+      <c r="G21" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="H21" s="46" t="s">
+      <c r="H21" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="I21" s="46" t="s">
+      <c r="I21" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2" t="s">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="46" t="s">
+      <c r="E22" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="F22" s="46" t="s">
+      <c r="F22" s="40" t="s">
         <v>159</v>
       </c>
-      <c r="G22" s="46" t="s">
+      <c r="G22" s="40" t="s">
         <v>160</v>
       </c>
-      <c r="H22" s="46" t="s">
+      <c r="H22" s="40" t="s">
         <v>161</v>
       </c>
-      <c r="I22" s="46" t="s">
+      <c r="I22" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2" t="s">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="46" t="s">
+      <c r="E23" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="F23" s="46" t="s">
+      <c r="F23" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="G23" s="46" t="s">
+      <c r="G23" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="H23" s="46" t="s">
+      <c r="H23" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="I23" s="46" t="s">
+      <c r="I23" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2" t="s">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="46" t="s">
+      <c r="E24" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="F24" s="46" t="s">
+      <c r="F24" s="40" t="s">
         <v>164</v>
       </c>
-      <c r="G24" s="46" t="s">
+      <c r="G24" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="H24" s="46" t="s">
+      <c r="H24" s="40" t="s">
         <v>166</v>
       </c>
-      <c r="I24" s="46" t="s">
+      <c r="I24" s="40" t="s">
         <v>167</v>
       </c>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2" t="s">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="46" t="s">
+      <c r="E25" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="F25" s="46" t="s">
+      <c r="F25" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="G25" s="46" t="s">
+      <c r="G25" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="H25" s="46" t="s">
+      <c r="H25" s="40" t="s">
         <v>171</v>
       </c>
-      <c r="I25" s="46" t="s">
+      <c r="I25" s="40" t="s">
         <v>172</v>
       </c>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="36"/>
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
-      <c r="B29" s="5" t="s">
+      <c r="A29" s="1"/>
+      <c r="B29" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="2"/>
-      <c r="B30" s="27" t="s">
+      <c r="A30" s="1"/>
+      <c r="B30" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="27" t="s">
+      <c r="C30" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="E30" s="46">
+      <c r="E30" s="40">
         <v>1</v>
       </c>
-      <c r="F30" s="46">
+      <c r="F30" s="40">
         <v>2</v>
       </c>
-      <c r="G30" s="46">
+      <c r="G30" s="40">
         <v>2</v>
       </c>
-      <c r="H30" s="46">
+      <c r="H30" s="40">
         <v>4</v>
       </c>
-      <c r="I30" s="46">
+      <c r="I30" s="40">
         <v>5</v>
       </c>
-      <c r="J30" s="36"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="36"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="35"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2" t="s">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D31" s="40"/>
-      <c r="E31" s="46" t="s">
+      <c r="D31" s="39"/>
+      <c r="E31" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="F31" s="46" t="s">
+      <c r="F31" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="G31" s="46" t="s">
+      <c r="G31" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="H31" s="46" t="s">
+      <c r="H31" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="I31" s="46" t="s">
+      <c r="I31" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="J31" s="36"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="36"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2" t="s">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D32" s="40"/>
-      <c r="E32" s="46" t="s">
+      <c r="D32" s="39"/>
+      <c r="E32" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="F32" s="46" t="s">
+      <c r="F32" s="40" t="s">
         <v>175</v>
       </c>
-      <c r="G32" s="46" t="s">
+      <c r="G32" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="H32" s="46" t="s">
+      <c r="H32" s="40" t="s">
         <v>177</v>
       </c>
-      <c r="I32" s="46" t="s">
+      <c r="I32" s="40" t="s">
         <v>178</v>
       </c>
-      <c r="J32" s="36"/>
-      <c r="K32" s="36"/>
-      <c r="L32" s="36"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2" t="s">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D33" s="40"/>
-      <c r="E33" s="46" t="s">
+      <c r="D33" s="39"/>
+      <c r="E33" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="F33" s="46" t="s">
+      <c r="F33" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="G33" s="46" t="s">
+      <c r="G33" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="H33" s="46" t="s">
+      <c r="H33" s="40" t="s">
         <v>171</v>
       </c>
-      <c r="I33" s="46" t="s">
+      <c r="I33" s="40" t="s">
         <v>172</v>
       </c>
-      <c r="J33" s="36"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="36"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2" t="s">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="D34" s="23" t="s">
+      <c r="D34" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="E34" s="47">
+      <c r="E34" s="41">
         <v>45335</v>
       </c>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="47">
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="41">
         <v>45333</v>
       </c>
-      <c r="I34" s="47">
+      <c r="I34" s="41">
         <v>45332</v>
       </c>
-      <c r="J34" s="37"/>
-      <c r="K34" s="37"/>
-      <c r="L34" s="37"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2" t="s">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="D35" s="40"/>
-      <c r="E35" s="47">
+      <c r="D35" s="39"/>
+      <c r="E35" s="41">
         <v>45334</v>
       </c>
-      <c r="F35" s="47">
+      <c r="F35" s="41">
         <v>45332</v>
       </c>
-      <c r="G35" s="47">
+      <c r="G35" s="41">
         <v>45331</v>
       </c>
-      <c r="H35" s="47">
+      <c r="H35" s="41">
         <v>45330</v>
       </c>
-      <c r="I35" s="47">
+      <c r="I35" s="41">
         <v>45329</v>
       </c>
-      <c r="J35" s="37"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="37"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2" t="s">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="D36" s="40"/>
-      <c r="E36" s="47">
+      <c r="D36" s="39"/>
+      <c r="E36" s="41">
         <v>45336</v>
       </c>
-      <c r="F36" s="47">
+      <c r="F36" s="41">
         <v>45334</v>
       </c>
-      <c r="G36" s="47">
+      <c r="G36" s="41">
         <v>45333</v>
       </c>
-      <c r="H36" s="47">
+      <c r="H36" s="41">
         <v>45332</v>
       </c>
-      <c r="I36" s="47">
+      <c r="I36" s="41">
         <v>45331</v>
       </c>
-      <c r="J36" s="36"/>
-      <c r="K36" s="36"/>
-      <c r="L36" s="36"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2" t="s">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C37" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="D37" s="40"/>
-      <c r="E37" s="46" t="s">
+      <c r="D37" s="39"/>
+      <c r="E37" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="F37" s="46" t="s">
+      <c r="F37" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="G37" s="46" t="s">
+      <c r="G37" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="H37" s="46" t="s">
+      <c r="H37" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="I37" s="46" t="s">
+      <c r="I37" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="J37" s="36"/>
-      <c r="K37" s="36"/>
-      <c r="L37" s="36"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="35"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2" t="s">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D38" s="23" t="s">
+      <c r="D38" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="E38" s="46" t="s">
+      <c r="E38" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="F38" s="46" t="s">
+      <c r="F38" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="G38" s="46" t="s">
+      <c r="G38" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="H38" s="46" t="s">
+      <c r="H38" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="I38" s="46" t="s">
+      <c r="I38" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="J38" s="36"/>
-      <c r="K38" s="36"/>
-      <c r="L38" s="36"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" s="2"/>
-      <c r="B39" s="5" t="s">
+      <c r="A39" s="1"/>
+      <c r="B39" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="35"/>
-      <c r="I39" s="35"/>
-      <c r="J39" s="35"/>
-      <c r="K39" s="35"/>
-      <c r="L39" s="35"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="34"/>
+      <c r="L39" s="34"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" s="2"/>
-      <c r="B40" s="27" t="s">
+      <c r="A40" s="1"/>
+      <c r="B40" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C40" s="27" t="s">
+      <c r="C40" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="E40" s="46">
+      <c r="E40" s="40">
         <v>1</v>
       </c>
-      <c r="F40" s="46">
+      <c r="F40" s="40">
         <v>2</v>
       </c>
-      <c r="G40" s="46">
+      <c r="G40" s="40">
         <v>4</v>
       </c>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="36"/>
-      <c r="L40" s="36"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="35"/>
+      <c r="L40" s="35"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2" t="s">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D41" s="23" t="s">
+      <c r="D41" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="E41" s="46" t="s">
+      <c r="E41" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="F41" s="46" t="s">
+      <c r="F41" s="40" t="s">
         <v>181</v>
       </c>
-      <c r="G41" s="46" t="s">
+      <c r="G41" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="H41" s="36"/>
-      <c r="I41" s="36"/>
-      <c r="J41" s="36"/>
-      <c r="K41" s="36"/>
-      <c r="L41" s="36"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="35"/>
+      <c r="J41" s="35"/>
+      <c r="K41" s="35"/>
+      <c r="L41" s="35"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2" t="s">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D42" s="40"/>
-      <c r="E42" s="46" t="s">
+      <c r="D42" s="39"/>
+      <c r="E42" s="40" t="s">
         <v>180</v>
       </c>
-      <c r="F42" s="46" t="s">
+      <c r="F42" s="40" t="s">
         <v>182</v>
       </c>
-      <c r="G42" s="46" t="s">
+      <c r="G42" s="40" t="s">
         <v>184</v>
       </c>
-      <c r="H42" s="36"/>
-      <c r="I42" s="36"/>
-      <c r="J42" s="36"/>
-      <c r="K42" s="36"/>
-      <c r="L42" s="36"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="35"/>
+      <c r="K42" s="35"/>
+      <c r="L42" s="35"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2" t="s">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="C43" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="D43" s="40"/>
-      <c r="E43" s="46" t="s">
+      <c r="D43" s="39"/>
+      <c r="E43" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="F43" s="46" t="s">
+      <c r="F43" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="G43" s="46" t="s">
+      <c r="G43" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="H43" s="36"/>
-      <c r="I43" s="36"/>
-      <c r="J43" s="36"/>
-      <c r="K43" s="36"/>
-      <c r="L43" s="36"/>
+      <c r="H43" s="35"/>
+      <c r="I43" s="35"/>
+      <c r="J43" s="35"/>
+      <c r="K43" s="35"/>
+      <c r="L43" s="35"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A44" s="2"/>
-      <c r="B44" s="5" t="s">
+      <c r="A44" s="1"/>
+      <c r="B44" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C44" s="5"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="35"/>
-      <c r="I44" s="35"/>
-      <c r="J44" s="35"/>
-      <c r="K44" s="35"/>
-      <c r="L44" s="35"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="34"/>
+      <c r="K44" s="34"/>
+      <c r="L44" s="34"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A45" s="2"/>
-      <c r="B45" s="27" t="s">
+      <c r="A45" s="1"/>
+      <c r="B45" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C45" s="27" t="s">
+      <c r="C45" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="E45" s="46">
+      <c r="E45" s="40">
         <v>1</v>
       </c>
-      <c r="F45" s="46">
+      <c r="F45" s="40">
         <v>2</v>
       </c>
-      <c r="G45" s="46">
+      <c r="G45" s="40">
         <v>3</v>
       </c>
-      <c r="H45" s="36"/>
-      <c r="I45" s="36"/>
-      <c r="J45" s="36"/>
-      <c r="K45" s="36"/>
-      <c r="L45" s="36"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="35"/>
+      <c r="J45" s="35"/>
+      <c r="K45" s="35"/>
+      <c r="L45" s="35"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2" t="s">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D46" s="23" t="s">
+      <c r="D46" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="E46" s="46" t="s">
+      <c r="E46" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="F46" s="46" t="s">
+      <c r="F46" s="40" t="s">
         <v>181</v>
       </c>
-      <c r="G46" s="46" t="s">
+      <c r="G46" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="H46" s="36"/>
-      <c r="I46" s="36"/>
-      <c r="J46" s="36"/>
-      <c r="K46" s="36"/>
-      <c r="L46" s="36"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="35"/>
+      <c r="K46" s="35"/>
+      <c r="L46" s="35"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D47" s="40"/>
-      <c r="E47" s="46" t="s">
+      <c r="D47" s="39"/>
+      <c r="E47" s="40" t="s">
         <v>180</v>
       </c>
-      <c r="F47" s="46" t="s">
+      <c r="F47" s="40" t="s">
         <v>182</v>
       </c>
-      <c r="G47" s="46" t="s">
+      <c r="G47" s="40" t="s">
         <v>184</v>
       </c>
-      <c r="H47" s="38"/>
-      <c r="I47" s="38"/>
-      <c r="J47" s="38"/>
-      <c r="K47" s="38"/>
-      <c r="L47" s="38"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="37"/>
+      <c r="K47" s="37"/>
+      <c r="L47" s="37"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E48" s="39"/>
-      <c r="F48" s="39"/>
-      <c r="G48" s="39"/>
-      <c r="H48" s="39"/>
-      <c r="I48" s="39"/>
-      <c r="J48" s="39"/>
-      <c r="K48" s="39"/>
-      <c r="L48" s="39"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="38"/>
+      <c r="G48" s="38"/>
+      <c r="H48" s="38"/>
+      <c r="I48" s="38"/>
+      <c r="J48" s="38"/>
+      <c r="K48" s="38"/>
+      <c r="L48" s="38"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
